--- a/data/data-raw/dashboard-data.xlsx
+++ b/data/data-raw/dashboard-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efernandez\AppData\Local\Box\Box Edit\Documents\VDj4epuP5U+BOFZ_yj255w==\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECBB0D-B2D9-49BE-A601-AA3002CE219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{04ECBB0D-B2D9-49BE-A601-AA3002CE219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0B60D4-E853-4556-9957-E3D51102300B}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="555" windowWidth="21105" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -167,9 +170,6 @@
     <t>Does workforce development fit under CED or social services? (tina's response: according to the fed: “Workforce development” is an essential component of community economic development in any economic climate, and certainly even more critical during the financial crises we're experiencing today.)</t>
   </si>
   <si>
-    <t>Monroe County DHS</t>
-  </si>
-  <si>
     <t>Complex Care Program</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>https://www.monroecounty.gov/files/planning/arpa/July_2023_ARPA_Report_V3_8-22-23_With_Attachments.pdf</t>
+  </si>
+  <si>
+    <t>New with Sept update</t>
   </si>
   <si>
     <t>Cure Violence</t>
@@ -653,6 +656,9 @@
     <t xml:space="preserve">Program that will provide no cost loans or grants to those at or below 200% of the Federal poverty line no cost loans or grants who need transportation to start or keep employment. Support services such as employment coach/mentor and financial literacy. </t>
   </si>
   <si>
+    <t>Monroe County DHS</t>
+  </si>
+  <si>
     <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v12</t>
   </si>
   <si>
@@ -1222,9 +1228,6 @@
   </si>
   <si>
     <t>Fostering Racial and Ethnic Understanding and Equity</t>
-  </si>
-  <si>
-    <t>New with Sept update</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,13 +2162,13 @@
   <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V69" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" hidden="1" customWidth="1"/>
@@ -2191,7 +2194,7 @@
     <col min="23" max="23" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="50.1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2322,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="50.1" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2376,13 +2379,13 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -2391,7 +2394,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2413,13 +2416,13 @@
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="S4" s="4">
         <v>45160</v>
@@ -2427,11 +2430,11 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
-        <v>395</v>
+        <v>50</v>
       </c>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2485,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>59</v>
@@ -2535,7 +2538,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -2590,7 +2593,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>68</v>
@@ -2645,7 +2648,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2700,7 +2703,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>79</v>
@@ -2755,7 +2758,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="50.1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>84</v>
@@ -2810,7 +2813,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="50.1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>94</v>
       </c>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="50.1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>101</v>
       </c>
@@ -2977,7 +2980,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="50.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
@@ -3034,7 +3037,7 @@
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="50.1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>121</v>
@@ -3117,7 +3120,9 @@
       <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="13">
+        <v>3009905</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
         <v>1</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="50.1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -3199,7 +3204,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="50.1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>130</v>
       </c>
@@ -3256,7 +3261,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="50.1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
@@ -3309,7 +3314,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="50.1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -3337,8 +3342,8 @@
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="3">
-        <v>417225</v>
+      <c r="L21" s="13">
+        <v>5800000</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
@@ -3364,7 +3369,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="50.1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>148</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>150</v>
@@ -3421,7 +3426,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="50.1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="50.1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>161</v>
       </c>
@@ -3537,7 +3542,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="50.1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -3590,7 +3595,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="50.1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>171</v>
       </c>
@@ -3645,7 +3650,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="50.1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>176</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>178</v>
@@ -3702,7 +3707,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="50.1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>182</v>
       </c>
@@ -3759,7 +3764,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="50.1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>188</v>
       </c>
@@ -3816,7 +3821,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="50.1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>192</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="50.1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -3928,7 +3933,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="50.1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>203</v>
       </c>
@@ -3967,13 +3972,13 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S32" s="4">
         <v>45160</v>
@@ -3983,13 +3988,13 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="50.1" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>25</v>
@@ -4022,13 +4027,13 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S33" s="4">
         <v>45160</v>
@@ -4040,13 +4045,13 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="50.1" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>25</v>
@@ -4058,7 +4063,7 @@
         <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="2" t="s">
@@ -4079,13 +4084,13 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S34" s="4">
         <v>45160</v>
@@ -4095,13 +4100,13 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="50.1" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>25</v>
@@ -4110,7 +4115,7 @@
         <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>79</v>
@@ -4134,13 +4139,13 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S35" s="4">
         <v>45160</v>
@@ -4150,13 +4155,13 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="50.1" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
@@ -4171,7 +4176,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4193,7 +4198,7 @@
         <v>34</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S36" s="4">
         <v>45160</v>
@@ -4203,13 +4208,13 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="50.1" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>25</v>
@@ -4218,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>156</v>
@@ -4242,13 +4247,13 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S37" s="4">
         <v>45160</v>
@@ -4258,13 +4263,13 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="50.1" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -4297,13 +4302,13 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S38" s="4">
         <v>45160</v>
@@ -4315,25 +4320,25 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="50.1" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4352,13 +4357,13 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S39" s="4">
         <v>45160</v>
@@ -4368,28 +4373,28 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="50.1" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -4407,13 +4412,13 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S40" s="4">
         <v>45160</v>
@@ -4423,16 +4428,16 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="50.1" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>26</v>
@@ -4441,7 +4446,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4460,13 +4465,13 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S41" s="4">
         <v>45160</v>
@@ -4474,29 +4479,29 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="50.1" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -4515,13 +4520,13 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S42" s="4">
         <v>45160</v>
@@ -4531,16 +4536,16 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="50.1" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>26</v>
@@ -4549,7 +4554,7 @@
         <v>38</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="2"/>
@@ -4568,13 +4573,13 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S43" s="4">
         <v>45160</v>
@@ -4582,20 +4587,20 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="50.1" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>26</v>
@@ -4604,7 +4609,7 @@
         <v>53</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4623,13 +4628,13 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S44" s="4">
         <v>45160</v>
@@ -4637,20 +4642,20 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="50.1" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>26</v>
@@ -4659,7 +4664,7 @@
         <v>38</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="2" t="s">
@@ -4680,13 +4685,13 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S45" s="4">
         <v>45160</v>
@@ -4694,20 +4699,20 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="50.1" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>26</v>
@@ -4716,11 +4721,11 @@
         <v>136</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>31</v>
@@ -4739,13 +4744,13 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S46" s="4">
         <v>45160</v>
@@ -4755,30 +4760,30 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="50.1" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>32</v>
@@ -4794,13 +4799,13 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S47" s="4">
         <v>45160</v>
@@ -4808,20 +4813,20 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="50.1" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>26</v>
@@ -4830,7 +4835,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4849,13 +4854,13 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S48" s="4">
         <v>45160</v>
@@ -4863,20 +4868,20 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="50.1" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>26</v>
@@ -4885,7 +4890,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="2"/>
@@ -4904,13 +4909,13 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S49" s="4">
         <v>45160</v>
@@ -4918,20 +4923,20 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="50.1" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>26</v>
@@ -4940,7 +4945,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -4959,13 +4964,13 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S50" s="4">
         <v>45160</v>
@@ -4975,28 +4980,28 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="50.1" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -5014,13 +5019,13 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S51" s="4">
         <v>45160</v>
@@ -5030,16 +5035,16 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="50.1" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>26</v>
@@ -5048,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -5067,13 +5072,13 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S52" s="4">
         <v>45160</v>
@@ -5081,20 +5086,20 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="50.1" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>26</v>
@@ -5103,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -5122,13 +5127,13 @@
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S53" s="4">
         <v>45160</v>
@@ -5138,16 +5143,16 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="50.1" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>26</v>
@@ -5156,7 +5161,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -5175,13 +5180,13 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S54" s="4">
         <v>45160</v>
@@ -5189,20 +5194,20 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="50.1" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>26</v>
@@ -5211,7 +5216,7 @@
         <v>53</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5230,13 +5235,13 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S55" s="4">
         <v>45160</v>
@@ -5244,20 +5249,20 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="50.1" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>26</v>
@@ -5266,7 +5271,7 @@
         <v>53</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5285,13 +5290,13 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S56" s="4">
         <v>45160</v>
@@ -5299,20 +5304,20 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="50.1" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>26</v>
@@ -5321,7 +5326,7 @@
         <v>53</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5340,13 +5345,13 @@
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S57" s="4">
         <v>45160</v>
@@ -5354,20 +5359,20 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="50.1" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>26</v>
@@ -5376,7 +5381,7 @@
         <v>53</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5395,13 +5400,13 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S58" s="4">
         <v>45160</v>
@@ -5409,20 +5414,20 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="50.1" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>26</v>
@@ -5431,7 +5436,7 @@
         <v>53</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -5450,13 +5455,13 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S59" s="4">
         <v>45160</v>
@@ -5464,29 +5469,29 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="50.1" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5505,13 +5510,13 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S60" s="4">
         <v>45160</v>
@@ -5521,28 +5526,28 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="50.1" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>30</v>
@@ -5564,13 +5569,13 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S61" s="4">
         <v>45160</v>
@@ -5580,16 +5585,16 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="50.1" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>26</v>
@@ -5601,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>40</v>
@@ -5623,13 +5628,13 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S62" s="4">
         <v>45160</v>
@@ -5639,16 +5644,16 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="50.1" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>26</v>
@@ -5678,13 +5683,13 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S63" s="4">
         <v>45160</v>
@@ -5694,16 +5699,16 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="50.1" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>26</v>
@@ -5733,13 +5738,13 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S64" s="4">
         <v>45160</v>
@@ -5749,16 +5754,16 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="50.1" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>26</v>
@@ -5790,13 +5795,13 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S65" s="4">
         <v>45160</v>
@@ -5806,16 +5811,16 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="50.1" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>26</v>
@@ -5824,7 +5829,7 @@
         <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -5843,13 +5848,13 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S66" s="4">
         <v>45160</v>
@@ -5857,29 +5862,29 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="50.1" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5898,13 +5903,13 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S67" s="4">
         <v>45160</v>
@@ -5914,16 +5919,16 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="50.1" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>26</v>
@@ -5932,7 +5937,7 @@
         <v>38</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -5951,13 +5956,13 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S68" s="4">
         <v>45160</v>
@@ -5965,20 +5970,20 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="50.1" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
@@ -6010,13 +6015,13 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S69" s="4">
         <v>45160</v>
@@ -6025,28 +6030,28 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="50.1" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
@@ -6069,13 +6074,13 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S70" s="4">
         <v>45160</v>
@@ -6085,16 +6090,16 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="50.1" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>26</v>
@@ -6126,13 +6131,13 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S71" s="4">
         <v>45160</v>
@@ -6140,20 +6145,20 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="50.1" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>26</v>
@@ -6162,7 +6167,7 @@
         <v>38</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="2"/>
@@ -6181,13 +6186,13 @@
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S72" s="4">
         <v>45160</v>
@@ -6195,20 +6200,20 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="50.1" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>26</v>
@@ -6217,14 +6222,14 @@
         <v>38</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>32</v>
@@ -6240,13 +6245,13 @@
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S73" s="4">
         <v>45160</v>
@@ -6254,34 +6259,34 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="50.1" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -6299,13 +6304,13 @@
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S74" s="4">
         <v>45160</v>
@@ -6315,28 +6320,28 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="50.1" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -6354,13 +6359,13 @@
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S75" s="4">
         <v>45160</v>
@@ -6368,20 +6373,20 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="50.1" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>26</v>
@@ -6409,13 +6414,13 @@
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S76" s="4">
         <v>45160</v>
@@ -6425,16 +6430,16 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="50.1" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>26</v>
@@ -6446,7 +6451,7 @@
         <v>28</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>30</v>
@@ -6466,13 +6471,13 @@
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S77" s="4">
         <v>45160</v>
@@ -6482,16 +6487,16 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="50.1" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>26</v>
@@ -6500,11 +6505,11 @@
         <v>136</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>31</v>
@@ -6523,13 +6528,13 @@
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S78" s="4">
         <v>45160</v>
@@ -6539,16 +6544,16 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="50.1" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>26</v>
@@ -6576,13 +6581,13 @@
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S79" s="4">
         <v>45160</v>
@@ -6592,16 +6597,16 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="50.1" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>26</v>
@@ -6610,10 +6615,10 @@
         <v>53</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -6631,13 +6636,13 @@
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S80" s="4">
         <v>45160</v>
@@ -6647,16 +6652,16 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="50.1" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>26</v>
@@ -6665,7 +6670,7 @@
         <v>38</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="2"/>
@@ -6684,13 +6689,13 @@
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S81" s="4">
         <v>45160</v>
@@ -6698,20 +6703,20 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="50.1" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>26</v>
@@ -6743,13 +6748,13 @@
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S82" s="4">
         <v>45160</v>
@@ -6759,28 +6764,28 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="50.1" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>30</v>
@@ -6802,13 +6807,13 @@
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S83" s="4">
         <v>45160</v>
@@ -6818,28 +6823,28 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="50.1" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -6857,13 +6862,13 @@
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S84" s="4">
         <v>45160</v>
@@ -6873,16 +6878,16 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="50.1" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>26</v>
@@ -6914,13 +6919,13 @@
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S85" s="4">
         <v>45160</v>
@@ -6931,19 +6936,19 @@
         <v>187</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="50.1" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>26</v>
@@ -6973,13 +6978,13 @@
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S86" s="4">
         <v>45160</v>
@@ -6989,16 +6994,16 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="50.1" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>26</v>
@@ -7030,13 +7035,13 @@
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S87" s="4">
         <v>45160</v>
@@ -7047,19 +7052,19 @@
         <v>43</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="50.1" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>26</v>
@@ -7091,13 +7096,13 @@
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S88" s="4">
         <v>45160</v>
@@ -7109,16 +7114,16 @@
       </c>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="50.1" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>26</v>
@@ -7150,13 +7155,13 @@
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S89" s="4">
         <v>45160</v>
@@ -7168,24 +7173,24 @@
       </c>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="60">
       <c r="A90" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>32</v>
@@ -7200,36 +7205,36 @@
         <v>1</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S90" s="4">
         <v>45160</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="120">
       <c r="A91" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>32</v>
@@ -7244,27 +7249,27 @@
         <v>1</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S91" s="4">
         <v>45160</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="60">
       <c r="A92" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>26</v>
@@ -7273,10 +7278,10 @@
         <v>38</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>32</v>
@@ -7291,36 +7296,36 @@
         <v>1</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S92" s="4">
         <v>45160</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="90">
       <c r="A93" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>32</v>
@@ -7335,13 +7340,13 @@
         <v>1</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S93" s="4">
         <v>45160</v>
@@ -7393,46 +7398,46 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7448,31 +7453,31 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7488,39 +7493,39 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>110</v>
       </c>

--- a/data/data-raw/dashboard-data.xlsx
+++ b/data/data-raw/dashboard-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efernandez\AppData\Local\Box\Box Edit\Documents\VDj4epuP5U+BOFZ_yj255w==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efernandez\AppData\Local\Box\Box Edit\Documents\hCh_NQ+wgk6ZFmtSXz9V0Q==\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{04ECBB0D-B2D9-49BE-A601-AA3002CE219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0B60D4-E853-4556-9957-E3D51102300B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B58B8-7AA3-4E92-8CB4-01487032D431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="555" windowWidth="21105" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="2115" windowWidth="20745" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rochester Dashboard data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="building_blocks" sheetId="3" r:id="rId3"/>
     <sheet name="racf_categories" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rochester Dashboard data'!$A$1:$W$95</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="364">
   <si>
     <t>program</t>
   </si>
@@ -140,12 +143,6 @@
     <t>Baden Street Settlement of Rochester, Inc</t>
   </si>
   <si>
-    <t>Monroe County Proposed Awardees</t>
-  </si>
-  <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v21</t>
-  </si>
-  <si>
     <t>Cariola Workforce Development Program Supporting Careers in the Education and Support of Individuals with Complex Disabilities</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Mary Cariola Center</t>
-  </si>
-  <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v7</t>
   </si>
   <si>
     <t>Does workforce development fit under CED or social services? (tina's response: according to the fed: “Workforce development” is an essential component of community economic development in any economic climate, and certainly even more critical during the financial crises we're experiencing today.)</t>
@@ -186,9 +180,6 @@
     <t>Monroe County July 2023 Annual Report</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/planning/arpa/July_2023_ARPA_Report_V3_8-22-23_With_Attachments.pdf</t>
-  </si>
-  <si>
     <t>New with Sept update</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Monroe County Public Health</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v29</t>
-  </si>
-  <si>
     <t>Deaf Refugee Advocacy Community Connections</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Deaf Refugee Advocacy</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dress for Success Rochester: Road to Success </t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Dress for Success Rochester</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v9</t>
-  </si>
-  <si>
     <t>Driven2Success</t>
   </si>
   <si>
@@ -249,9 +231,6 @@
     <t>Consumer Credit Counseling Service of Rochester</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v39</t>
-  </si>
-  <si>
     <t>Enhanced Access to Behavioral Health and Medical Care for All Rochester City School District Students</t>
   </si>
   <si>
@@ -267,9 +246,6 @@
     <t>Department of Pediatrics UR Medicine and Rochester Regional Health</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expanding Food Access for Monroe County Families </t>
   </si>
   <si>
@@ -282,9 +258,6 @@
     <t>Foodlink, Inc.</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v36</t>
-  </si>
-  <si>
     <t>Family Reunification Crisis Centers</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>Monroe County Public Safety</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v41</t>
-  </si>
-  <si>
     <t>Health and Wellness Program</t>
   </si>
   <si>
@@ -318,9 +288,6 @@
     <t>Monroe County Sheriff</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v25</t>
-  </si>
-  <si>
     <t>Health Transformation through Education, Outreach, and Engagement</t>
   </si>
   <si>
@@ -336,9 +303,6 @@
     <t>St. Joseph’s Neighborhood Center</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v19</t>
-  </si>
-  <si>
     <t>Program renamed St. Joseph’s Neighborhood Center</t>
   </si>
   <si>
@@ -354,9 +318,6 @@
     <t>Monroe County Public Health/ DHS</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v26</t>
-  </si>
-  <si>
     <t>Improving Older Adults’ Health, Safety and Economic Recovery Through Community-based Aging Services and Healthcare Integration</t>
   </si>
   <si>
@@ -375,9 +336,6 @@
     <t>Lifespan of Greater Rochester</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decreased funding from $1m to $777,777 </t>
   </si>
   <si>
@@ -390,9 +348,6 @@
     <t>Monroe County DEI</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v14</t>
-  </si>
-  <si>
     <t>Decreased funding from $1,000,000 to $200,000, renamed Language Access Program and no longer includes MWBE Micro Loan Program</t>
   </si>
   <si>
@@ -408,9 +363,6 @@
     <t>Willow Domestic Violence Center of Greater Rochester, Inc.</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v34</t>
-  </si>
-  <si>
     <t>Increased from $1,522,097 to $3,009,905</t>
   </si>
   <si>
@@ -426,9 +378,6 @@
     <t>Healthy Baby Network</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v22</t>
-  </si>
-  <si>
     <t>MAPP / PROJECT PHOENIX</t>
   </si>
   <si>
@@ -438,9 +387,6 @@
     <t>Multicraft Apprenticeship Preparation Program, Inc.</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v6</t>
-  </si>
-  <si>
     <t>Monroe County Land Bank</t>
   </si>
   <si>
@@ -459,9 +405,6 @@
     <t>Monroe County Department of Planning</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v18</t>
-  </si>
-  <si>
     <t>Mt. Olivet Baptist Church Active Shooter Preventive Action Plan</t>
   </si>
   <si>
@@ -477,9 +420,6 @@
     <t>Mt. Olivet Baptist Church</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v27</t>
-  </si>
-  <si>
     <t>Increased from $417,225 to $5,800,000</t>
   </si>
   <si>
@@ -498,9 +438,6 @@
     <t>Community Resource Collaborative on Behalf of the Neighborhood Collaborative Project</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v37</t>
-  </si>
-  <si>
     <t>Neighborhood Resource Centers</t>
   </si>
   <si>
@@ -513,9 +450,6 @@
     <t>YMCA of Greater Rochester</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v3</t>
-  </si>
-  <si>
     <t>Decreased funding from $2,031,544 to $1,531,544</t>
   </si>
   <si>
@@ -534,9 +468,6 @@
     <t>Trillium Health</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v23</t>
-  </si>
-  <si>
     <t>Project JEDI</t>
   </si>
   <si>
@@ -549,9 +480,6 @@
     <t>I changed this to DEI since it sounds like a DEI initiative</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v31</t>
-  </si>
-  <si>
     <t>Promoting A Community Transformation: Nonviolence Project (PACT: Nonviolence Project)</t>
   </si>
   <si>
@@ -561,9 +489,6 @@
     <t>Center for Community Alternatives</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v28</t>
-  </si>
-  <si>
     <t>Decreased funding from $3,879,996 to $2,979,996</t>
   </si>
   <si>
@@ -579,9 +504,6 @@
     <t>Reentry Association of WNY, Inc.</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decreased from $5,117,843 to $4,617,843 </t>
   </si>
   <si>
@@ -597,9 +519,6 @@
     <t>Create jobs for residents hardest hit by the pandemic or who face the greatest barriers to employment</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v13</t>
-  </si>
-  <si>
     <t>Could potentially fit within the reinvest in disinvested communities building block depending on if there is a specific focus of the grants</t>
   </si>
   <si>
@@ -612,12 +531,6 @@
     <t>The Research Foundation for SUNY Brockport</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v2</t>
-  </si>
-  <si>
-    <t>Rochester Energy Efficiency and Weatherization (RENEW)</t>
-  </si>
-  <si>
     <t>Grants for low-income homeowners to receive energy-efficient home improvement.</t>
   </si>
   <si>
@@ -630,9 +543,6 @@
     <t>Rochester Energy Efficiency &amp; Weatherization (RENEW)</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v16</t>
-  </si>
-  <si>
     <t>Transformational Community Care Coordination (TC3)</t>
   </si>
   <si>
@@ -640,9 +550,6 @@
   </si>
   <si>
     <t>FLPPS</t>
-  </si>
-  <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v10</t>
   </si>
   <si>
     <t xml:space="preserve">Combined with the Transforming Lives through Nursing Pathways, combined funding is now $11,000,000
@@ -659,9 +566,6 @@
     <t>Monroe County DHS</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v12</t>
-  </si>
-  <si>
     <t>Urban League of Rochester Workforce Development Program for Under and Unemployed Individuals</t>
   </si>
   <si>
@@ -671,9 +575,6 @@
     <t>Urban League of Rochester, NY, Inc.</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v4</t>
-  </si>
-  <si>
     <t>Veteran Housing and Services Project (VHSP)</t>
   </si>
   <si>
@@ -686,9 +587,6 @@
     <t xml:space="preserve">Veterans Outreach Center, Inc. </t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v17</t>
-  </si>
-  <si>
     <t>VOA's Hydroponic Farm</t>
   </si>
   <si>
@@ -696,9 +594,6 @@
   </si>
   <si>
     <t xml:space="preserve">Volunteers of America of Western New York, Inc. </t>
-  </si>
-  <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v35</t>
   </si>
   <si>
     <t>Youth and Police Initiative</t>
@@ -711,9 +606,6 @@
 I'm wary to label something community programming when it is a police department program - what do you think?  Tina: I think police departments can do community policing and prevention. They just don't much, but this is clearly a prevention program, no? or I guess it could be a recruitment strategy if they're trying to recruit those youth into policing</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v30</t>
-  </si>
-  <si>
     <t>Youth Mentoring and Family Support in Monroe County</t>
   </si>
   <si>
@@ -723,9 +615,6 @@
     <t>Big Brothers Big Sisters of Greater Rochester NY</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v38</t>
-  </si>
-  <si>
     <t>Youth Workforce Consortium aka "The Hive"</t>
   </si>
   <si>
@@ -735,9 +624,6 @@
     <t>EnCompass: Resources for Learning</t>
   </si>
   <si>
-    <t>https://www.monroecounty.gov/files/news/Referral%20list%20of%20awardees.pdf?v8</t>
-  </si>
-  <si>
     <t>Accounting &amp; Compliance Technical Assistance</t>
   </si>
   <si>
@@ -978,9 +864,6 @@
     <t>Recreation and Human Services</t>
   </si>
   <si>
-    <t>Healthy Food Accessibility Loan and Grant Program</t>
-  </si>
-  <si>
     <t>Funding will be used to invest in city-based businesses to expand healthy food access, attract new  healthy food retail businesses to target areas, and implement innovative, alternative food retail models.</t>
   </si>
   <si>
@@ -1228,6 +1111,30 @@
   </si>
   <si>
     <t>Fostering Racial and Ethnic Understanding and Equity</t>
+  </si>
+  <si>
+    <t>Affordable Housing - Park Square</t>
+  </si>
+  <si>
+    <t>The Park Square II project includes the preservation and rehabilitation of 200 existing affordable rental units located in Midtown Manor, now known as the Tower at Park Square, and the new construction of 40 affordable rental units on the property to replace those demolished as part of Park Square (Southest Towers) Phase 1.</t>
+  </si>
+  <si>
+    <t>Affordable Housing</t>
+  </si>
+  <si>
+    <t>Demolition Program</t>
+  </si>
+  <si>
+    <t>The funds will be used to support the City's demolition program that removes vacant, derelict, and fire-damaged structures that are a public safety hazard or blight ot the surrounding neighborhoods.</t>
+  </si>
+  <si>
+    <t>Healthy Food Accessibility Program</t>
+  </si>
+  <si>
+    <t>Rochester ENergy Efficiency and Weatherization (RENEW)</t>
+  </si>
+  <si>
+    <t>https://www.monroecounty.gov/files/planning/arpa/July_2023_ARPA_Report_V3_8-22-23_With_Attachments%20-%20OLIVET%20UPDATED.pdf</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,14 +1288,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1709,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1752,9 +1651,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1768,13 +1666,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1790,21 +1682,14 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1838,7 +1723,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1863,9 +1747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1903,7 +1787,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2009,7 +1893,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2151,7 +2035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2159,27 +2043,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V69" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
     <col min="7" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.5703125" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2194,7 +2078,7 @@
     <col min="23" max="23" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2265,194 +2149,190 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="50.1" customHeight="1">
+    <row r="2" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>175000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>102131</v>
+      </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="S2" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="50.1" customHeight="1">
+    <row r="3" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="3">
-        <v>2022230</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>1875000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1072330</v>
+      </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="S3" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
+    <row r="4" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>49</v>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="S4" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2461,200 +2341,182 @@
         <v>32</v>
       </c>
       <c r="L5" s="3">
-        <v>4200000</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>963518</v>
+      </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="S5" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
+    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
+      <c r="F6" t="s">
+        <v>196</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>197</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>454100</v>
+      </c>
+      <c r="M6" s="3">
+        <v>242258</v>
+      </c>
       <c r="N6" s="2">
         <v>1</v>
       </c>
-      <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>61</v>
+        <v>199</v>
+      </c>
+      <c r="R6" t="s">
+        <v>200</v>
       </c>
       <c r="S6" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="3">
-        <v>588820</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>510614</v>
+      </c>
       <c r="N7" s="2">
         <v>1</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="S7" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
+    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="3">
-        <v>429491</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>1450000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>382000</v>
+      </c>
       <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>70</v>
+        <v>199</v>
+      </c>
+      <c r="R8" t="s">
+        <v>200</v>
       </c>
       <c r="S8" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -2665,21 +2527,23 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>73</v>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="3">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
@@ -2687,251 +2551,253 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="S9" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="3">
-        <v>1430745</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>3000000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>114646</v>
+      </c>
       <c r="N10" s="2">
         <v>1</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="S10" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="50.1" customHeight="1">
+    <row r="11" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="3">
-        <v>400000</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>162000</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
       <c r="N11" s="2">
         <v>1</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="S11" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="50.1" customHeight="1">
+    <row r="12" spans="1:23" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="3">
-        <v>3502000</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>720000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>50780</v>
+      </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="S12" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="9" t="s">
+    <row r="13" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="10">
-        <v>2758595</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="3">
+        <v>13129162</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4143090</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S13" s="4">
+        <v>45413</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>25</v>
@@ -2940,14 +2806,14 @@
         <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>31</v>
@@ -2956,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="3">
-        <v>4000000</v>
+        <v>2022230</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
@@ -2964,141 +2830,143 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="S14" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="50.1" customHeight="1">
+    <row r="15" spans="1:23" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="3">
-        <v>777777</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>8700000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>452513</v>
+      </c>
       <c r="N15" s="2">
         <v>1</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="S15" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="11" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="10">
-        <v>200000</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>117</v>
+    <row r="16" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="S16" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T16" s="9"/>
-      <c r="V16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>25</v>
@@ -3107,21 +2975,23 @@
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="13">
-        <v>3009905</v>
+      <c r="L17" s="3">
+        <v>5000000</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
@@ -3129,145 +2999,139 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="S17" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="50.1" customHeight="1">
+    <row r="18" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>150000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>150000</v>
+      </c>
       <c r="N18" s="2">
         <v>1</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="S18" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="50.1" customHeight="1">
+    <row r="19" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>160600</v>
+      </c>
+      <c r="M19" s="3">
+        <v>160600</v>
+      </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="S19" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="50.1" customHeight="1">
+    <row r="20" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>25</v>
@@ -3276,21 +3140,19 @@
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="3">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
@@ -3298,84 +3160,84 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="S20" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="50.1" customHeight="1">
+    <row r="21" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>143</v>
+        <v>196</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="13">
-        <v>5800000</v>
-      </c>
-      <c r="M21" s="2"/>
+      <c r="L21" s="3">
+        <v>144000</v>
+      </c>
+      <c r="M21" s="3">
+        <v>64000</v>
+      </c>
       <c r="N21" s="2">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="S21" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="50.1" customHeight="1">
+    <row r="22" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -3384,25 +3246,21 @@
         <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="3">
-        <v>7160849</v>
+        <v>2000000</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
@@ -3410,29 +3268,29 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="S22" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="50.1" customHeight="1">
+    <row r="23" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -3441,14 +3299,14 @@
         <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>31</v>
@@ -3456,8 +3314,8 @@
       <c r="K23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="12">
-        <v>1531544</v>
+      <c r="L23" s="3">
+        <v>588820</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
@@ -3465,33 +3323,29 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>158</v>
+        <v>363</v>
       </c>
       <c r="S23" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="50.1" customHeight="1">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>25</v>
@@ -3500,14 +3354,12 @@
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -3518,7 +3370,7 @@
         <v>32</v>
       </c>
       <c r="L24" s="3">
-        <v>4908546</v>
+        <v>429491</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
@@ -3526,137 +3378,139 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="S24" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="50.1" customHeight="1">
+    <row r="25" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="3">
-        <v>710000</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>1771000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>259538</v>
+      </c>
       <c r="N25" s="2">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="S25" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="50.1" customHeight="1">
+    <row r="26" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="13">
-        <v>2979996</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="L26" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>141881</v>
+      </c>
       <c r="N26" s="2">
         <v>1</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="S26" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="50.1" customHeight="1">
+    <row r="27" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
@@ -3665,23 +3519,23 @@
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="12">
-        <v>4617843</v>
+      <c r="L27" s="3">
+        <v>1000000</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
@@ -3689,88 +3543,82 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="S27" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="50.1" customHeight="1">
+    <row r="28" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="3">
-        <v>5800000</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1000000</v>
+      </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="S28" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="50.1" customHeight="1">
+    <row r="29" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
@@ -3779,14 +3627,14 @@
         <v>26</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>31</v>
@@ -3795,7 +3643,7 @@
         <v>32</v>
       </c>
       <c r="L29" s="3">
-        <v>1317950</v>
+        <v>1430745</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2">
@@ -3803,31 +3651,29 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>191</v>
+        <v>363</v>
       </c>
       <c r="S29" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="50.1" customHeight="1">
+    <row r="30" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -3836,23 +3682,23 @@
         <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="3">
-        <v>850000</v>
+        <v>400000</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2">
@@ -3860,432 +3706,430 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="S30" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="50.1" customHeight="1">
+    <row r="31" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="12">
-        <v>11000000</v>
-      </c>
-      <c r="M31" s="3"/>
+      <c r="L31" s="3">
+        <v>250000</v>
+      </c>
+      <c r="M31" s="3">
+        <v>221987</v>
+      </c>
       <c r="N31" s="2">
         <v>1</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="S31" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="50.1" customHeight="1">
+    <row r="32" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="3">
-        <v>1400000</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>4000000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>196059</v>
+      </c>
       <c r="N32" s="2">
         <v>1</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S32" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="50.1" customHeight="1">
+    <row r="33" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="3">
-        <v>3139007</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>340000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>330136</v>
+      </c>
       <c r="N33" s="2">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="S33" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="50.1" customHeight="1">
+    <row r="34" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="3">
-        <v>1974500</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>4000000</v>
+      </c>
+      <c r="M34" s="3">
+        <v>166802</v>
+      </c>
       <c r="N34" s="2">
         <v>1</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="S34" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
+      <c r="V34" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="50.1" customHeight="1">
+    <row r="35" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L35" s="3">
-        <v>1282500</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>400000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>360324</v>
+      </c>
       <c r="N35" s="2">
         <v>1</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="S35" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="50.1" customHeight="1">
+    <row r="36" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="3">
-        <v>500000</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>400000</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
       <c r="N36" s="2">
         <v>1</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="S36" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="50.1" customHeight="1">
+    <row r="37" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="3">
-        <v>655688</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>11123500</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5623500</v>
+      </c>
       <c r="N37" s="2">
         <v>1</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="S37" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="50.1" customHeight="1">
+    <row r="38" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="I38" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>31</v>
@@ -4294,548 +4138,556 @@
         <v>32</v>
       </c>
       <c r="L38" s="3">
-        <v>5869117</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>2191500</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1299500</v>
+      </c>
       <c r="N38" s="2">
         <v>1</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="S38" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="50.1" customHeight="1">
+    <row r="39" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="3">
-        <v>175000</v>
-      </c>
-      <c r="M39" s="3">
-        <v>102131</v>
-      </c>
+        <v>3502000</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2">
         <v>1</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S39" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="50.1" customHeight="1">
+    <row r="40" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L40" s="3">
-        <v>1875000</v>
+        <v>500000</v>
       </c>
       <c r="M40" s="3">
-        <v>349499</v>
+        <v>186174</v>
       </c>
       <c r="N40" s="2">
         <v>1</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S40" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="50.1" customHeight="1">
+    <row r="41" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>161363</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2" t="s">
-        <v>247</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="8">
+        <v>2758595</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S41" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" ht="50.1" customHeight="1">
+        <v>45138</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>249</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>251</v>
+        <v>27</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>3843245</v>
       </c>
       <c r="M42" s="3">
-        <v>341447</v>
+        <v>217839</v>
       </c>
       <c r="N42" s="2">
         <v>1</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S42" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="50.1" customHeight="1">
+    <row r="43" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5223</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2">
         <v>1</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S43" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="50.1" customHeight="1">
+    <row r="44" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="3">
-        <v>162000</v>
+        <v>5697200</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>3431583</v>
       </c>
       <c r="N44" s="2">
         <v>1</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S44" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="V44" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="50.1" customHeight="1">
+    <row r="45" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="3">
-        <v>720000</v>
+        <v>1000000</v>
       </c>
       <c r="M45" s="3">
-        <v>45490</v>
+        <v>730674</v>
       </c>
       <c r="N45" s="2">
         <v>1</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S45" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="50.1" customHeight="1">
+    <row r="46" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L46" s="3">
-        <v>13129162</v>
+        <v>650000</v>
       </c>
       <c r="M46" s="3">
-        <v>1146950</v>
+        <v>527841</v>
       </c>
       <c r="N46" s="2">
         <v>1</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S46" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="50.1" customHeight="1">
+    <row r="47" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L47" s="3">
-        <v>8700000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>202278</v>
-      </c>
+        <v>777777</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2">
         <v>1</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S47" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="50.1" customHeight="1">
+    <row r="48" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4844,306 +4696,316 @@
         <v>32</v>
       </c>
       <c r="L48" s="3">
-        <v>1500000</v>
+        <v>3058895</v>
       </c>
       <c r="M48" s="3">
-        <v>1500000</v>
+        <v>2586205</v>
       </c>
       <c r="N48" s="2">
         <v>1</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S48" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="50.1" customHeight="1">
+    <row r="49" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L49" s="3">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="M49" s="3">
-        <v>150000</v>
+        <v>30257</v>
       </c>
       <c r="N49" s="2">
         <v>1</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S49" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="50.1" customHeight="1">
+    <row r="50" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L50" s="3">
-        <v>160600</v>
+        <v>131200</v>
       </c>
       <c r="M50" s="3">
-        <v>160600</v>
+        <v>71415</v>
       </c>
       <c r="N50" s="2">
         <v>1</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S50" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-    </row>
-    <row r="51" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="3">
-        <v>144000</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
-        <v>285</v>
+      <c r="W50" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="8">
+        <v>200000</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S51" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-    </row>
-    <row r="52" spans="1:23" ht="50.1" customHeight="1">
+        <v>45138</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="3">
-        <v>1700000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
+      <c r="L52" s="11">
+        <v>3009905</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2">
         <v>1</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S52" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="50.1" customHeight="1">
+    <row r="53" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="K53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L53" s="3">
-        <v>1000000</v>
+        <v>36996975</v>
       </c>
       <c r="M53" s="3">
-        <v>1000000</v>
+        <v>16048699</v>
       </c>
       <c r="N53" s="2">
         <v>1</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S53" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="50.1" customHeight="1">
+    <row r="54" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>290</v>
       </c>
@@ -5152,181 +5014,179 @@
         <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="K54" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L54" s="3">
-        <v>250000</v>
+        <v>6000000</v>
       </c>
       <c r="M54" s="3">
-        <v>143656</v>
+        <v>4075800</v>
       </c>
       <c r="N54" s="2">
         <v>1</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S54" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="50.1" customHeight="1">
+    <row r="55" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L55" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="M55" s="3">
-        <v>88511</v>
-      </c>
+        <v>2200000</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2">
         <v>1</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S55" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>295</v>
+    <row r="56" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L56" s="3">
-        <v>340000</v>
+        <v>5350000</v>
       </c>
       <c r="M56" s="3">
-        <v>7220</v>
+        <v>2208</v>
       </c>
       <c r="N56" s="2">
         <v>1</v>
       </c>
-      <c r="O56" s="2"/>
       <c r="P56" s="2" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
+      </c>
+      <c r="R56" t="s">
+        <v>200</v>
       </c>
       <c r="S56" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="W56" s="2"/>
-    </row>
-    <row r="57" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5335,117 +5195,123 @@
         <v>32</v>
       </c>
       <c r="L57" s="3">
-        <v>4000000</v>
+        <v>5525000</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>312983</v>
       </c>
       <c r="N57" s="2">
         <v>1</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S57" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="50.1" customHeight="1">
+    <row r="58" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L58" s="3">
-        <v>400000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
+        <v>1200000</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2">
         <v>1</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S58" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="50.1" customHeight="1">
+    <row r="59" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="I59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="K59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L59" s="3">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -5455,161 +5321,159 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S59" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="W59" s="2"/>
-    </row>
-    <row r="60" spans="1:23" ht="50.1" customHeight="1">
+        <v>298</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>302</v>
+        <v>117</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L60" s="3">
-        <v>11123500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>5623500</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2">
         <v>1</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2" t="s">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S60" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="50.1" customHeight="1">
+    <row r="61" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>306</v>
+        <v>49</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>112500</v>
-      </c>
+      <c r="L61" s="11">
+        <v>417225</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2">
         <v>1</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S61" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
+      <c r="V61" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="50.1" customHeight="1">
+    <row r="62" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>309</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>31</v>
@@ -5618,273 +5482,264 @@
         <v>32</v>
       </c>
       <c r="L62" s="3">
-        <v>500000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>120069</v>
-      </c>
+        <v>7160849</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2">
         <v>1</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S62" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="50.1" customHeight="1">
+    <row r="63" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L63" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="M63" s="3">
-        <v>0</v>
-      </c>
+      <c r="L63" s="10">
+        <v>1531544</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2">
         <v>1</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S63" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-    </row>
-    <row r="64" spans="1:23" ht="50.1" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
-        <v>315</v>
+      <c r="V63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="K64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L64" s="3">
-        <v>5697200</v>
+        <v>900000</v>
       </c>
       <c r="M64" s="3">
-        <v>1788767</v>
+        <v>210000</v>
       </c>
       <c r="N64" s="2">
         <v>1</v>
       </c>
-      <c r="O64" s="2"/>
       <c r="P64" s="2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
+      </c>
+      <c r="R64" t="s">
+        <v>200</v>
       </c>
       <c r="S64" s="4">
-        <v>45160</v>
-      </c>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-    </row>
-    <row r="65" spans="1:23" ht="50.1" customHeight="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L65" s="3">
-        <v>1000000</v>
+        <v>11876500</v>
       </c>
       <c r="M65" s="3">
-        <v>430264</v>
+        <v>8376500</v>
       </c>
       <c r="N65" s="2">
         <v>1</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S65" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="50.1" customHeight="1">
+    <row r="66" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="3">
-        <v>650000</v>
+        <v>2000000</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="N66" s="2">
         <v>1</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S66" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="50.1" customHeight="1">
+    <row r="67" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5893,676 +5748,664 @@
         <v>32</v>
       </c>
       <c r="L67" s="3">
-        <v>3098000</v>
+        <v>1763625</v>
       </c>
       <c r="M67" s="3">
-        <v>2143165</v>
+        <v>753000</v>
       </c>
       <c r="N67" s="2">
         <v>1</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S67" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="50.1" customHeight="1">
+    <row r="68" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L68" s="3">
-        <v>75000</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
+        <v>4908546</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2">
         <v>1</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S68" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-      <c r="V68" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="50.1" customHeight="1">
+    <row r="69" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L69" s="3">
-        <v>175000</v>
-      </c>
-      <c r="M69" s="3">
-        <v>58001</v>
-      </c>
+        <v>710000</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2">
         <v>1</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S69" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="50.1" customHeight="1">
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>327</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="3">
-        <v>36996975</v>
-      </c>
-      <c r="M70" s="3">
-        <v>7456576</v>
-      </c>
+      <c r="L70" s="11">
+        <v>2979996</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2">
         <v>1</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S70" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
+      <c r="V70" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="50.1" customHeight="1">
+    <row r="71" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L71" s="3">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="M71" s="3">
-        <v>0</v>
+        <v>308584</v>
       </c>
       <c r="N71" s="2">
         <v>1</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S71" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-      <c r="V71" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="50.1" customHeight="1">
+    <row r="72" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="3">
-        <v>5525000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>68457</v>
-      </c>
+      <c r="L72" s="10">
+        <v>4617843</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2">
         <v>1</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S72" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="50.1" customHeight="1">
+    <row r="73" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>337</v>
+        <v>36</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="3">
-        <v>500000</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
+        <v>5800000</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2">
         <v>1</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S73" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="50.1" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K74" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L74" s="3">
-        <v>11876500</v>
-      </c>
-      <c r="M74" s="3">
-        <v>8376500</v>
-      </c>
+        <v>1317950</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2">
         <v>1</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S74" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
+      <c r="V74" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="50.1" customHeight="1">
+    <row r="75" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>344</v>
+        <v>163</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="K75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L75" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="M75" s="3">
-        <v>2000000</v>
-      </c>
+        <v>850000</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2">
         <v>1</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S75" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="50.1" customHeight="1">
+    <row r="76" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K76" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L76" s="3">
-        <v>2605625</v>
+        <v>2400000</v>
       </c>
       <c r="M76" s="3">
-        <v>569623</v>
+        <v>800000</v>
       </c>
       <c r="N76" s="2">
         <v>1</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S76" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="50.1" customHeight="1">
+    <row r="77" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="3">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="M77" s="3">
-        <v>15324</v>
+        <v>1270713</v>
       </c>
       <c r="N77" s="2">
         <v>1</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S77" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="50.1" customHeight="1">
+    <row r="78" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L78" s="3">
-        <v>2400000</v>
+        <v>2587200</v>
       </c>
       <c r="M78" s="3">
-        <v>0</v>
+        <v>660621</v>
       </c>
       <c r="N78" s="2">
         <v>1</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S78" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="50.1" customHeight="1">
+    <row r="79" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -6571,798 +6414,957 @@
         <v>32</v>
       </c>
       <c r="L79" s="3">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="M79" s="3">
-        <v>755182</v>
+        <v>1210591</v>
       </c>
       <c r="N79" s="2">
         <v>1</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S79" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
+      <c r="V79" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="50.1" customHeight="1">
+    <row r="80" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L80" s="3">
-        <v>2587200</v>
+        <v>7702200</v>
       </c>
       <c r="M80" s="3">
-        <v>286281</v>
+        <v>4727276</v>
       </c>
       <c r="N80" s="2">
         <v>1</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2" t="s">
-        <v>359</v>
+        <v>224</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S80" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="50.1" customHeight="1">
+    <row r="81" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="K81" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L81" s="3">
-        <v>6000000</v>
+        <v>2149460</v>
       </c>
       <c r="M81" s="3">
-        <v>263864</v>
+        <v>2149460</v>
       </c>
       <c r="N81" s="2">
         <v>1</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S81" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
-      <c r="V81" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="50.1" customHeight="1">
+    <row r="82" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L82" s="3">
-        <v>7702200</v>
+        <v>2000000</v>
       </c>
       <c r="M82" s="3">
-        <v>2609408</v>
+        <v>2000000</v>
       </c>
       <c r="N82" s="2">
         <v>1</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S82" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="50.1" customHeight="1">
+    <row r="83" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>367</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L83" s="3">
-        <v>2779800</v>
+        <v>635963</v>
       </c>
       <c r="M83" s="3">
-        <v>1735560</v>
+        <v>635963</v>
       </c>
       <c r="N83" s="2">
         <v>1</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S83" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-    </row>
-    <row r="84" spans="1:23" ht="50.1" customHeight="1">
+      <c r="V83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I84" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L84" s="3">
-        <v>2000000</v>
+        <v>2080000</v>
       </c>
       <c r="M84" s="3">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="N84" s="2">
         <v>1</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="S84" s="4">
-        <v>45160</v>
+        <v>45413</v>
       </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="50.1" customHeight="1">
+    <row r="85" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>372</v>
+        <v>168</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J85" s="5" t="s">
+      <c r="J85" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L85" s="3">
-        <v>3223100</v>
-      </c>
-      <c r="M85" s="3">
-        <v>497871</v>
-      </c>
+      <c r="L85" s="10">
+        <v>11000000</v>
+      </c>
+      <c r="M85" s="3"/>
       <c r="N85" s="2">
         <v>1</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S85" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="50.1" customHeight="1">
+        <v>170</v>
+      </c>
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H86" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K86" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L86" s="3">
-        <v>2080000</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
+        <v>1400000</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2">
         <v>1</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S86" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="50.1" customHeight="1">
+    <row r="87" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J87" s="5" t="s">
+      <c r="J87" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L87" s="3">
-        <v>16725000</v>
-      </c>
-      <c r="M87" s="3">
-        <v>1182088</v>
-      </c>
+        <v>3139007</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2">
         <v>1</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S87" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="50.1" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>379</v>
+        <v>177</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L88" s="3">
-        <v>300000</v>
-      </c>
-      <c r="M88" s="3">
-        <v>300000</v>
-      </c>
+        <v>1974500</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2">
         <v>1</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S88" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
-      <c r="V88" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="50.1" customHeight="1">
+    <row r="89" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>382</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L89" s="3">
-        <v>150000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>120169</v>
-      </c>
+        <v>1282500</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2">
         <v>1</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="S89" s="4">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
-      <c r="V89" s="2" t="s">
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" s="3">
+        <v>16415340</v>
+      </c>
+      <c r="M90" s="3">
+        <v>4566273</v>
+      </c>
+      <c r="N90" s="2">
+        <v>1</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S90" s="4">
+        <v>45413</v>
+      </c>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="3">
+        <v>300000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>300000</v>
+      </c>
+      <c r="N91" s="2">
+        <v>1</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S91" s="4">
+        <v>45413</v>
+      </c>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="1:23" ht="240" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="3">
+        <v>500000</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2">
+        <v>1</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="S92" s="4">
+        <v>45138</v>
+      </c>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L93" s="3">
+        <v>120169</v>
+      </c>
+      <c r="M93" s="3">
+        <v>120169</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S93" s="4">
+        <v>45413</v>
+      </c>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W89" s="2"/>
-    </row>
-    <row r="90" spans="1:23" ht="60">
-      <c r="A90" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" s="3">
-        <v>454100</v>
-      </c>
-      <c r="M90" s="3">
-        <v>0</v>
-      </c>
-      <c r="N90" s="2">
-        <v>1</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R90" t="s">
-        <v>239</v>
-      </c>
-      <c r="S90" s="4">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="120">
-      <c r="A91" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1450000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="2">
-        <v>1</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R91" t="s">
-        <v>239</v>
-      </c>
-      <c r="S91" s="4">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="60">
-      <c r="A92" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L94" s="3">
+        <v>655688</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2">
+        <v>1</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="S94" s="4">
+        <v>45138</v>
+      </c>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" s="3">
-        <v>5350000</v>
-      </c>
-      <c r="M92" s="3">
-        <v>0</v>
-      </c>
-      <c r="N92" s="2">
-        <v>1</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R92" t="s">
-        <v>239</v>
-      </c>
-      <c r="S92" s="4">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="90">
-      <c r="A93" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L93" s="3">
-        <v>900000</v>
-      </c>
-      <c r="M93" s="3">
-        <v>0</v>
-      </c>
-      <c r="N93" s="2">
-        <v>1</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R93" t="s">
-        <v>239</v>
-      </c>
-      <c r="S93" s="4">
-        <v>45160</v>
-      </c>
+      <c r="J95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" s="3">
+        <v>5869117</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2">
+        <v>1</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="S95" s="4">
+        <v>45138</v>
+      </c>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W95" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W90">
-    <sortCondition ref="D2:D90"/>
-    <sortCondition ref="A2:A90"/>
+  <autoFilter ref="A1:W95" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W95">
+      <sortCondition ref="A1:A95"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W92">
+    <sortCondition ref="D2:D92"/>
+    <sortCondition ref="A2:A92"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" xr:uid="{E31ADA7A-9684-42BB-86C9-6FE703B144D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -7398,46 +7400,46 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7453,31 +7455,31 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7493,41 +7495,41 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
